--- a/data/xlsx/2022-23.xlsx
+++ b/data/xlsx/2022-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3551E2A0-4E10-F748-A920-7CD9466E1319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F546563A-5E24-464D-B2CF-BCA24EF411E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31940" windowHeight="19140" xr2:uid="{0548804B-A14A-7743-B5A1-E6D7E38B98EB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31940" windowHeight="19140" activeTab="13" xr2:uid="{0548804B-A14A-7743-B5A1-E6D7E38B98EB}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -563,9 +563,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -603,7 +603,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -709,7 +709,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -851,7 +851,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -861,9 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FBC781-449B-C84C-8428-18C48440741E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -931,9 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB07B998-3AB7-DC4B-9833-5785D56311D7}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1189,9 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0028DC88-4904-D44A-B189-B9F19D0247B0}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1404,9 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B2CCFB-3F90-F946-9BD9-58DE2696DC51}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2164,9 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CC7F2-535B-9549-B8C4-418B6FD92D5D}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2603,9 +2593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A7AC74-5B4C-584E-8980-8B636D251EF7}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3913,9 +3901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47F7A5C-E203-AF41-88C4-15F17D2195D2}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4257,9 +4243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6F6E79-F356-9F42-BE5B-49ECABB9EA38}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/data/xlsx/2022-23.xlsx
+++ b/data/xlsx/2022-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F546563A-5E24-464D-B2CF-BCA24EF411E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8780F4F-1002-4748-81C2-03E83449457A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31940" windowHeight="19140" activeTab="13" xr2:uid="{0548804B-A14A-7743-B5A1-E6D7E38B98EB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31940" windowHeight="19140" activeTab="1" xr2:uid="{0548804B-A14A-7743-B5A1-E6D7E38B98EB}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>Jay Fonville</t>
   </si>
   <si>
-    <t>Meredith Henkleman</t>
-  </si>
-  <si>
     <t>John Lemen</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>Bill Oehlschlager</t>
+  </si>
+  <si>
+    <t>Meredith Henkelman</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -938,24 +938,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -964,216 +964,216 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="E9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1194,24 +1194,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1220,159 +1220,159 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1407,19 +1407,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -1440,10 +1440,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1467,41 +1467,41 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1520,76 +1520,76 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1608,126 +1608,126 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="E11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1748,19 +1748,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -1781,10 +1781,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1808,41 +1808,41 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1861,194 +1861,194 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -2058,87 +2058,87 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2156,7 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CC7F2-535B-9549-B8C4-418B6FD92D5D}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2165,19 +2165,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -2198,10 +2198,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2227,138 +2227,138 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2390,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819DDB6E-0755-9549-82D3-5EB9D8627019}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2412,7 +2412,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2426,7 +2426,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="2"/>
@@ -2439,14 +2439,14 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -2465,14 +2465,14 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -2511,72 +2511,72 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
       <c r="E11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2"/>
       <c r="G14" s="2"/>
@@ -2602,24 +2602,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2628,15 +2628,15 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -2648,12 +2648,12 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -2665,12 +2665,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2682,50 +2682,50 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -2734,36 +2734,36 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2772,36 +2772,36 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -2810,36 +2810,36 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -2848,92 +2848,92 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2954,24 +2954,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -2980,15 +2980,15 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -3000,368 +3000,368 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3386,24 +3386,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3412,281 +3412,281 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3707,24 +3707,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3733,15 +3733,15 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -3753,143 +3753,143 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3910,24 +3910,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -3936,208 +3936,208 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
@@ -4146,92 +4146,92 @@
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4249,24 +4249,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -4275,54 +4275,54 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -4337,10 +4337,10 @@
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -4372,7 +4372,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4405,24 +4405,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -4431,248 +4431,248 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="E9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/2022-23.xlsx
+++ b/data/xlsx/2022-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8780F4F-1002-4748-81C2-03E83449457A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA63DF32-BD25-4347-B93B-C0278D15A3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31940" windowHeight="19140" activeTab="1" xr2:uid="{0548804B-A14A-7743-B5A1-E6D7E38B98EB}"/>
   </bookViews>
@@ -2390,9 +2390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819DDB6E-0755-9549-82D3-5EB9D8627019}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
